--- a/codelists/LABA_ICS_SNOMED.xlsx
+++ b/codelists/LABA_ICS_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:A218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26148711000001101</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>26112111000001106</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26148711000001101</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>38136011000001106</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26148711000001101</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>39360211000001103</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26148711000001101</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>40220911000001108</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12911011000001100</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>12906411000001100</t>
         </is>
       </c>
@@ -432,11 +402,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12911011000001100</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>39817511000001103</t>
         </is>
       </c>
@@ -444,11 +409,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12911011000001100</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>39939611000001107</t>
         </is>
       </c>
@@ -456,11 +416,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12911011000001100</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>41963811000001107</t>
         </is>
       </c>
@@ -468,11 +423,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31087511000001105</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>31063111000001106</t>
         </is>
       </c>
@@ -480,11 +430,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31087411000001106</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>31063411000001101</t>
         </is>
       </c>
@@ -492,11 +437,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31087411000001106</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>40852311000001103</t>
         </is>
       </c>
@@ -504,11 +444,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31087411000001106</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>41966111000001105</t>
         </is>
       </c>
@@ -516,11 +451,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>39133611000001108</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>39105811000001102</t>
         </is>
       </c>
@@ -528,11 +458,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>3294211000001101</t>
         </is>
       </c>
@@ -540,11 +465,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>10983311000001107</t>
         </is>
       </c>
@@ -552,11 +472,6 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>13206411000001106</t>
         </is>
       </c>
@@ -564,11 +479,6 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>13958011000001106</t>
         </is>
       </c>
@@ -576,11 +486,6 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>14620511000001104</t>
         </is>
       </c>
@@ -588,11 +493,6 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>17457311000001102</t>
         </is>
       </c>
@@ -600,11 +500,6 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>18195111000001106</t>
         </is>
       </c>
@@ -612,11 +507,6 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>34950611000001103</t>
         </is>
       </c>
@@ -624,11 +514,6 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>35912011000001109</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>37997311000001107</t>
         </is>
       </c>
@@ -636,11 +521,6 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>3294611000001104</t>
         </is>
       </c>
@@ -648,11 +528,6 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>5277211000001106</t>
         </is>
       </c>
@@ -660,11 +535,6 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>5321011000001102</t>
         </is>
       </c>
@@ -672,11 +542,6 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>13958611000001104</t>
         </is>
       </c>
@@ -684,11 +549,6 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>14620711000001109</t>
         </is>
       </c>
@@ -696,11 +556,6 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>17457611000001107</t>
         </is>
       </c>
@@ -708,11 +563,6 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>18195311000001108</t>
         </is>
       </c>
@@ -720,11 +570,6 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>25254111000001105</t>
         </is>
       </c>
@@ -732,11 +577,6 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>34950311000001108</t>
         </is>
       </c>
@@ -744,11 +584,6 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>36889311000001107</t>
         </is>
       </c>
@@ -756,11 +591,6 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>37397411000001107</t>
         </is>
       </c>
@@ -768,11 +598,6 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>37434411000001103</t>
         </is>
       </c>
@@ -780,11 +605,6 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>37631511000001104</t>
         </is>
       </c>
@@ -792,11 +612,6 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>37739011000001101</t>
         </is>
       </c>
@@ -804,11 +619,6 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>37997511000001101</t>
         </is>
       </c>
@@ -816,11 +626,6 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>38130011000001108</t>
         </is>
       </c>
@@ -828,11 +633,6 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>40106011000001102</t>
         </is>
       </c>
@@ -840,11 +640,6 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38896811000001103</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>42007211000001108</t>
         </is>
       </c>
@@ -852,11 +647,6 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32960711000001105</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>32926011000001100</t>
         </is>
       </c>
@@ -864,11 +654,6 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>4373811000001100</t>
         </is>
       </c>
@@ -876,11 +661,6 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>10506611000001103</t>
         </is>
       </c>
@@ -888,11 +668,6 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>13206611000001109</t>
         </is>
       </c>
@@ -900,11 +675,6 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>13959211000001106</t>
         </is>
       </c>
@@ -912,11 +682,6 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>14621111000001102</t>
         </is>
       </c>
@@ -924,11 +689,6 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>17457811000001106</t>
         </is>
       </c>
@@ -936,11 +696,6 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>18195511000001102</t>
         </is>
       </c>
@@ -948,11 +703,6 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>25254711000001106</t>
         </is>
       </c>
@@ -960,11 +710,6 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>34812111000001106</t>
         </is>
       </c>
@@ -972,11 +717,6 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
           <t>36889511000001101</t>
         </is>
       </c>
@@ -984,11 +724,6 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
           <t>37397211000001108</t>
         </is>
       </c>
@@ -996,11 +731,6 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
           <t>37434611000001100</t>
         </is>
       </c>
@@ -1008,11 +738,6 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
           <t>37444211000001103</t>
         </is>
       </c>
@@ -1020,11 +745,6 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
           <t>37631711000001109</t>
         </is>
       </c>
@@ -1032,11 +752,6 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
           <t>37997711000001106</t>
         </is>
       </c>
@@ -1044,11 +759,6 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
           <t>38130211000001103</t>
         </is>
       </c>
@@ -1056,11 +766,6 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
           <t>40106211000001107</t>
         </is>
       </c>
@@ -1068,11 +773,6 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4378111000001103</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
           <t>42007511000001106</t>
         </is>
       </c>
@@ -1080,11 +780,6 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>35647511000001107</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
           <t>35647311000001101</t>
         </is>
       </c>
@@ -1092,11 +787,6 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>35647511000001107</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
           <t>38135111000001101</t>
         </is>
       </c>
@@ -1104,11 +794,6 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>35647511000001107</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
           <t>39089311000001103</t>
         </is>
       </c>
@@ -1116,11 +801,6 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
           <t>21019411000001101</t>
         </is>
       </c>
@@ -1128,11 +808,6 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
           <t>29749211000001101</t>
         </is>
       </c>
@@ -1140,11 +815,6 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
           <t>37391711000001105</t>
         </is>
       </c>
@@ -1152,11 +822,6 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
           <t>37484911000001104</t>
         </is>
       </c>
@@ -1164,11 +829,6 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
           <t>37665111000001104</t>
         </is>
       </c>
@@ -1176,11 +836,6 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21113711000001102</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
           <t>38134511000001109</t>
         </is>
       </c>
@@ -1188,11 +843,6 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
           <t>810211000001105</t>
         </is>
       </c>
@@ -1200,11 +850,6 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
           <t>10473211000001109</t>
         </is>
       </c>
@@ -1212,11 +857,6 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
           <t>10512011000001109</t>
         </is>
       </c>
@@ -1224,11 +864,6 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
           <t>13998111000001104</t>
         </is>
       </c>
@@ -1236,11 +871,6 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
           <t>14705411000001106</t>
         </is>
       </c>
@@ -1248,11 +878,6 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
           <t>16241311000001105</t>
         </is>
       </c>
@@ -1260,11 +885,6 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
           <t>17440711000001101</t>
         </is>
       </c>
@@ -1272,11 +892,6 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
           <t>18185611000001104</t>
         </is>
       </c>
@@ -1284,11 +899,6 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
           <t>29782111000001107</t>
         </is>
       </c>
@@ -1296,11 +906,6 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
           <t>34023611000001101</t>
         </is>
       </c>
@@ -1308,11 +913,6 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
           <t>34215311000001107</t>
         </is>
       </c>
@@ -1320,11 +920,6 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
           <t>34677011000001107</t>
         </is>
       </c>
@@ -1332,11 +927,6 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
           <t>35594211000001100</t>
         </is>
       </c>
@@ -1344,11 +934,6 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
           <t>37444011000001108</t>
         </is>
       </c>
@@ -1356,11 +941,6 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
           <t>37714611000001102</t>
         </is>
       </c>
@@ -1368,11 +948,6 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
           <t>37996511000001103</t>
         </is>
       </c>
@@ -1380,11 +955,6 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
           <t>38166911000001103</t>
         </is>
       </c>
@@ -1392,11 +962,6 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
           <t>38640111000001109</t>
         </is>
       </c>
@@ -1404,11 +969,6 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
           <t>39360411000001104</t>
         </is>
       </c>
@@ -1416,11 +976,6 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>39111111000001109</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
           <t>40040711000001101</t>
         </is>
       </c>
@@ -1428,11 +983,6 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
           <t>21019711000001107</t>
         </is>
       </c>
@@ -1440,11 +990,6 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
           <t>29749611000001104</t>
         </is>
       </c>
@@ -1452,11 +997,6 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
           <t>37448711000001102</t>
         </is>
       </c>
@@ -1464,11 +1004,6 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
           <t>37484711000001101</t>
         </is>
       </c>
@@ -1476,11 +1011,6 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
           <t>37665311000001102</t>
         </is>
       </c>
@@ -1488,11 +1018,6 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21113811000001105</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
           <t>38134711000001104</t>
         </is>
       </c>
@@ -1500,11 +1025,6 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
           <t>539811000001106</t>
         </is>
       </c>
@@ -1512,11 +1032,6 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
           <t>5276811000001105</t>
         </is>
       </c>
@@ -1524,11 +1039,6 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
           <t>10472811000001102</t>
         </is>
       </c>
@@ -1536,11 +1046,6 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
           <t>13998411000001109</t>
         </is>
       </c>
@@ -1548,11 +1053,6 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
           <t>14705811000001108</t>
         </is>
       </c>
@@ -1560,11 +1060,6 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
           <t>16241511000001104</t>
         </is>
       </c>
@@ -1572,11 +1067,6 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
           <t>16588111000001101</t>
         </is>
       </c>
@@ -1584,11 +1074,6 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
           <t>17440911000001104</t>
         </is>
       </c>
@@ -1596,11 +1081,6 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
           <t>18185811000001100</t>
         </is>
       </c>
@@ -1608,11 +1088,6 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
           <t>29782511000001103</t>
         </is>
       </c>
@@ -1620,11 +1095,6 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
           <t>30253911000001100</t>
         </is>
       </c>
@@ -1632,11 +1102,6 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
           <t>34023811000001102</t>
         </is>
       </c>
@@ -1644,11 +1109,6 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
           <t>34215511000001101</t>
         </is>
       </c>
@@ -1656,11 +1116,6 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
           <t>34675711000001103</t>
         </is>
       </c>
@@ -1668,11 +1123,6 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
           <t>35594411000001101</t>
         </is>
       </c>
@@ -1680,11 +1130,6 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
           <t>37443611000001104</t>
         </is>
       </c>
@@ -1692,11 +1137,6 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
           <t>37702411000001105</t>
         </is>
       </c>
@@ -1704,11 +1144,6 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
           <t>37714811000001103</t>
         </is>
       </c>
@@ -1716,11 +1151,6 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
           <t>37729411000001107</t>
         </is>
       </c>
@@ -1728,11 +1158,6 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
           <t>37996711000001108</t>
         </is>
       </c>
@@ -1740,11 +1165,6 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
           <t>38167111000001103</t>
         </is>
       </c>
@@ -1752,11 +1172,6 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
           <t>38640311000001106</t>
         </is>
       </c>
@@ -1764,11 +1179,6 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>39111311000001106</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
           <t>40040911000001104</t>
         </is>
       </c>
@@ -1776,11 +1186,6 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>35647611000001106</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
           <t>35650811000001109</t>
         </is>
       </c>
@@ -1788,11 +1193,6 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>35647611000001106</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
           <t>38135311000001104</t>
         </is>
       </c>
@@ -1800,11 +1200,6 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21113911000001100</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
           <t>21020611000001104</t>
         </is>
       </c>
@@ -1812,11 +1207,6 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>21113911000001100</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
           <t>29749411000001102</t>
         </is>
       </c>
@@ -1824,11 +1214,6 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>21113911000001100</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
           <t>38134911000001102</t>
         </is>
       </c>
@@ -1836,11 +1221,6 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>39111011000001108</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
           <t>453611000001102</t>
         </is>
       </c>
@@ -1848,11 +1228,6 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>39111011000001108</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
           <t>16728511000001101</t>
         </is>
       </c>
@@ -1860,11 +1235,6 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>39111011000001108</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
           <t>35594011000001105</t>
         </is>
       </c>
@@ -1872,11 +1242,6 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>39111011000001108</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
           <t>40034211000001104</t>
         </is>
       </c>
@@ -1884,11 +1249,6 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>39111011000001108</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
           <t>40220711000001106</t>
         </is>
       </c>
@@ -1896,11 +1256,6 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
           <t>23621711000001102</t>
         </is>
       </c>
@@ -1908,11 +1263,6 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
           <t>30273011000001101</t>
         </is>
       </c>
@@ -1920,11 +1270,6 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
           <t>37532911000001106</t>
         </is>
       </c>
@@ -1932,11 +1277,6 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
           <t>37700511000001108</t>
         </is>
       </c>
@@ -1944,11 +1284,6 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
           <t>37994011000001101</t>
         </is>
       </c>
@@ -1956,11 +1291,6 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>23661311000001105</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
           <t>38165511000001103</t>
         </is>
       </c>
@@ -1968,11 +1298,6 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
           <t>23622011000001107</t>
         </is>
       </c>
@@ -1980,11 +1305,6 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
           <t>30273211000001106</t>
         </is>
       </c>
@@ -1992,11 +1312,6 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
           <t>37533111000001102</t>
         </is>
       </c>
@@ -2004,11 +1319,6 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
           <t>37700711000001103</t>
         </is>
       </c>
@@ -2016,11 +1326,6 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
           <t>37994211000001106</t>
         </is>
       </c>
@@ -2028,11 +1333,6 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>23661411000001103</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
           <t>38165311000001109</t>
         </is>
       </c>
@@ -2040,11 +1340,6 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>40455711000001101</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
           <t>40445111000001100</t>
         </is>
       </c>
@@ -2052,11 +1347,6 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
           <t>3186911000001100</t>
         </is>
       </c>
@@ -2064,11 +1354,6 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
           <t>5275611000001101</t>
         </is>
       </c>
@@ -2076,11 +1361,6 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
           <t>5317111000001100</t>
         </is>
       </c>
@@ -2088,11 +1368,6 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
           <t>13997111000001100</t>
         </is>
       </c>
@@ -2100,11 +1375,6 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
           <t>14674111000001100</t>
         </is>
       </c>
@@ -2112,11 +1382,6 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
           <t>16240811000001109</t>
         </is>
       </c>
@@ -2124,11 +1389,6 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
           <t>16587911000001104</t>
         </is>
       </c>
@@ -2136,11 +1396,6 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
           <t>17440111000001102</t>
         </is>
       </c>
@@ -2148,11 +1403,6 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
           <t>18185011000001106</t>
         </is>
       </c>
@@ -2160,11 +1410,6 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
           <t>39567811000001100</t>
         </is>
       </c>
@@ -2172,11 +1417,6 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
           <t>41158211000001107</t>
         </is>
       </c>
@@ -2184,11 +1424,6 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>38897611000001100</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
           <t>41977111000001103</t>
         </is>
       </c>
@@ -2196,11 +1431,6 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>40455811000001109</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
           <t>40444911000001101</t>
         </is>
       </c>
@@ -2208,11 +1438,6 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
           <t>3187211000001106</t>
         </is>
       </c>
@@ -2220,11 +1445,6 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
           <t>5276011000001104</t>
         </is>
       </c>
@@ -2232,11 +1452,6 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
           <t>5317311000001103</t>
         </is>
       </c>
@@ -2244,11 +1459,6 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
           <t>13997511000001109</t>
         </is>
       </c>
@@ -2256,11 +1466,6 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
           <t>14674711000001104</t>
         </is>
       </c>
@@ -2268,11 +1473,6 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
           <t>16241011000001107</t>
         </is>
       </c>
@@ -2280,11 +1480,6 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
           <t>17440311000001100</t>
         </is>
       </c>
@@ -2292,11 +1487,6 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
           <t>18185211000001101</t>
         </is>
       </c>
@@ -2304,11 +1494,6 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
           <t>35515511000001100</t>
         </is>
       </c>
@@ -2316,11 +1501,6 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
           <t>37443211000001101</t>
         </is>
       </c>
@@ -2328,11 +1508,6 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
           <t>37702211000001106</t>
         </is>
       </c>
@@ -2340,11 +1515,6 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
           <t>39567611000001104</t>
         </is>
       </c>
@@ -2352,11 +1522,6 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
           <t>40504911000001103</t>
         </is>
       </c>
@@ -2364,11 +1529,6 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>38897511000001104</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
           <t>41158811000001108</t>
         </is>
       </c>
@@ -2376,11 +1536,6 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
           <t>3188311000001102</t>
         </is>
       </c>
@@ -2388,11 +1543,6 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
           <t>5276211000001109</t>
         </is>
       </c>
@@ -2400,11 +1550,6 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
           <t>5317511000001109</t>
         </is>
       </c>
@@ -2412,11 +1557,6 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
           <t>14705211000001107</t>
         </is>
       </c>
@@ -2424,11 +1564,6 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
           <t>16241111000001108</t>
         </is>
       </c>
@@ -2436,11 +1571,6 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
           <t>17440511000001106</t>
         </is>
       </c>
@@ -2448,11 +1578,6 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
           <t>18185411000001102</t>
         </is>
       </c>
@@ -2460,11 +1585,6 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
           <t>18611411000001104</t>
         </is>
       </c>
@@ -2472,11 +1592,6 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
           <t>30950311000001106</t>
         </is>
       </c>
@@ -2484,11 +1599,6 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
           <t>31064811000001101</t>
         </is>
       </c>
@@ -2496,11 +1606,6 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
           <t>33679711000001103</t>
         </is>
       </c>
@@ -2508,11 +1613,6 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
           <t>35515311000001106</t>
         </is>
       </c>
@@ -2520,11 +1620,6 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
           <t>36604711000001102</t>
         </is>
       </c>
@@ -2532,11 +1627,6 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
           <t>37443411000001102</t>
         </is>
       </c>
@@ -2544,11 +1634,6 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
           <t>37702611000001108</t>
         </is>
       </c>
@@ -2556,11 +1641,6 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
           <t>37714411000001100</t>
         </is>
       </c>
@@ -2568,11 +1648,6 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
           <t>39567411000001102</t>
         </is>
       </c>
@@ -2580,11 +1655,6 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
           <t>41159011000001107</t>
         </is>
       </c>
@@ -2592,11 +1662,6 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
           <t>41619211000001108</t>
         </is>
       </c>
@@ -2604,11 +1669,6 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>38897411000001103</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
           <t>42343111000001100</t>
         </is>
       </c>
@@ -2616,11 +1676,6 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>39116311000001103</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
           <t>39115411000001101</t>
         </is>
       </c>
@@ -2628,11 +1683,6 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>39116411000001105</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
           <t>39115911000001109</t>
         </is>
       </c>
@@ -2640,12 +1690,196 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>39114511000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>26148711000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>12911011000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>31087511000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>31087411000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>39133611000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>35912011000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>38896811000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>32960711000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4378111000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>35647511000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>21113711000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>39111111000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>21113811000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>39111311000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>35647611000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>21113911000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>39111011000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>23661311000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>23661411000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>40455711000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>38897611000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>40455811000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>38897511000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>38897411000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>39116311000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>39116411000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
           <t>39116511000001109</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>39114511000001103</t>
         </is>
       </c>
     </row>
